--- a/doc/70_テスト関連/04_テスト仕様書_テスト結果報告書_ck5_第1版.xlsx
+++ b/doc/70_テスト関連/04_テスト仕様書_テスト結果報告書_ck5_第1版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\70_テスト関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C53EC7-F576-4C73-91B7-5F73CDE2222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8A4343-8357-4623-BF2A-66B66AAA01F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6852" yWindow="2004" windowWidth="16980" windowHeight="11064" xr2:uid="{383718AA-61E8-4E6F-AB7B-6B5F96ACFACC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{383718AA-61E8-4E6F-AB7B-6B5F96ACFACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="127">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="2"/>
@@ -575,29 +575,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>氏名、生年月日、性別が表示される</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「山田 太郎、1985-05-15、男」</t>
-    <rPh sb="18" eb="19">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>未入力の項目がある状態で「更新」を押下</t>
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
@@ -1295,6 +1272,81 @@
     <t>モーダルでのアイコン表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期表示の画面に表示された</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名、生年月日、性別、電話番号、居住地、参加可能範囲、アウトドアレベル、
+参加希望レベルが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キョジュウチ</t>
+    </rPh>
+    <rPh sb="20" eb="26">
+      <t>サンカカノウハンイ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>サンカキボウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「山田 太郎、1985-05-15、男、0084-814-814、
+東京都、選択された都道府県：青森県, 岩手県, 
+宮城県, 秋田県, 山形県, 福島県、10、初心者歓迎」</t>
+    <rPh sb="18" eb="19">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>アオモリケン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>イワテケン</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ミヤギケン</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>アキタケン</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>ヤマガタケン</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>フクシマケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1770,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD946319-05C5-4584-B5E5-515EA70A8682}">
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2345,7 +2397,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="54" x14ac:dyDescent="0.45">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2358,12 +2410,14 @@
         <v>49</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
         <v>30</v>
@@ -2385,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>23</v>
@@ -2412,10 +2466,10 @@
         <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="4"/>
@@ -2432,7 +2486,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -2444,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="4"/>
@@ -2471,7 +2525,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="4"/>
@@ -2495,10 +2549,10 @@
         <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="4"/>
@@ -2522,10 +2576,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
@@ -2549,10 +2603,10 @@
         <v>14</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
@@ -2576,10 +2630,10 @@
         <v>14</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
@@ -2596,7 +2650,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -2608,7 +2662,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4"/>
@@ -2629,13 +2683,13 @@
         <v>48</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
@@ -2656,13 +2710,13 @@
         <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
@@ -2679,7 +2733,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -2691,7 +2745,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
@@ -2712,13 +2766,13 @@
         <v>48</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
@@ -2739,13 +2793,13 @@
         <v>48</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
@@ -2762,7 +2816,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -2774,12 +2828,12 @@
         <v>15</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2795,18 +2849,18 @@
         <v>61</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2822,18 +2876,18 @@
         <v>61</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2849,18 +2903,18 @@
         <v>61</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2873,21 +2927,21 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2900,21 +2954,21 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2927,21 +2981,21 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2953,7 +3007,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
@@ -2965,12 +3019,12 @@
         <v>15</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2989,15 +3043,15 @@
         <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -3016,15 +3070,15 @@
         <v>14</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -3043,15 +3097,15 @@
         <v>14</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -3063,7 +3117,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
@@ -3075,12 +3129,12 @@
         <v>15</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -3099,15 +3153,15 @@
         <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -3126,15 +3180,15 @@
         <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -3153,15 +3207,15 @@
         <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -3174,21 +3228,21 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -3200,7 +3254,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>13</v>
@@ -3212,12 +3266,12 @@
         <v>15</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -3236,15 +3290,15 @@
         <v>14</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -3263,15 +3317,15 @@
         <v>14</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -3290,15 +3344,15 @@
         <v>14</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
